--- a/Mifos Automation Excels/Client/2500-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2500-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
   <si>
     <t>Interest</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>L27</t>
-  </si>
-  <si>
-    <t>$ 200</t>
   </si>
   <si>
     <t>Accrual</t>
@@ -774,7 +771,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4">
         <v>558.33000000000004</v>
@@ -950,7 +947,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,8 +1038,8 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
@@ -1195,7 +1192,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,12 +1284,12 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1318,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="20"/>
     </row>
@@ -1332,7 +1329,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -1426,8 +1423,8 @@
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
+      <c r="I3" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
